--- a/biology/Botanique/Oxalis_triangularis_'Atropurpurea'/Oxalis_triangularis_'Atropurpurea'.xlsx
+++ b/biology/Botanique/Oxalis_triangularis_'Atropurpurea'/Oxalis_triangularis_'Atropurpurea'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oxalis_triangularis_%27Atropurpurea%27</t>
+          <t>Oxalis_triangularis_'Atropurpurea'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oxalis triangularis 'Atropurpurea' est un cultivar d'Oxalis triangularis. C'est une plante du genre des Oxalis de la famille des Oxalidacées. L'espèce sauvage est originaire d'Amérique du Sud (Argentine, Brésil, Bolivie et Paraguay).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oxalis_triangularis_%27Atropurpurea%27</t>
+          <t>Oxalis_triangularis_'Atropurpurea'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxalis regnellii 'Atropurpurea'
  Portail de la botanique                     </t>
